--- a/medicine/Enfance/La_Fille_du_savant_fou/La_Fille_du_savant_fou.xlsx
+++ b/medicine/Enfance/La_Fille_du_savant_fou/La_Fille_du_savant_fou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fille du savant fou est une série de bande dessinée, parue à partir de 2006.
@@ -514,7 +526,9 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tome 1 : L'Invention interdite (2006)
 Tome 2 : La Machine à détraquer le temps (2007)
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Éditeurs
-Delcourt (Collection Shampooing) : Tomes 1 à 3.</t>
+          <t>Éditeurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Delcourt (Collection Shampooing) : Tomes 1 à 3.</t>
         </is>
       </c>
     </row>
@@ -577,7 +596,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">2010 : Prix Tam-Tam pour La Fille du savant fou, tome 3 : L’Équation inconnue
  Portail de la bande dessinée francophone   Portail de l’humour   Portail de la littérature d’enfance et de jeunesse                   </t>
